--- a/data/hitster-summerparty-year-stat.xlsx
+++ b/data/hitster-summerparty-year-stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python-projects\song-timeline-card-generator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6368DB6-C04B-47BD-B78D-23917B6EF2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC1FB08-C057-4C17-ACB1-8DB8D84922FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="2880" windowWidth="15360" windowHeight="17520" activeTab="1" xr2:uid="{C0B9607A-4158-4F2A-961A-B7BBDD5B73E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C0B9607A-4158-4F2A-961A-B7BBDD5B73E1}"/>
   </bookViews>
   <sheets>
     <sheet name="summer_party" sheetId="1" r:id="rId1"/>
@@ -982,15 +982,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8623637D-7128-4370-9708-A9F1F3A1727A}">
-  <dimension ref="A2:I76"/>
+  <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1908</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1929</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1939</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1951</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1952</v>
       </c>
@@ -1047,8 +1047,12 @@
       <c r="I6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>I6+J6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1953</v>
       </c>
@@ -1067,8 +1071,12 @@
       <c r="I7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" ref="K7:K13" si="0">I7+J7</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1954</v>
       </c>
@@ -1087,8 +1095,12 @@
       <c r="I8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1955</v>
       </c>
@@ -1107,8 +1119,12 @@
       <c r="I9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1956</v>
       </c>
@@ -1127,8 +1143,15 @@
       <c r="I10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1957</v>
       </c>
@@ -1147,8 +1170,15 @@
       <c r="I11">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>-15</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -1167,8 +1197,15 @@
       <c r="I12">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>-30</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -1187,8 +1224,12 @@
       <c r="I13">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1960</v>
       </c>
@@ -1196,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1961</v>
       </c>
@@ -1204,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1962</v>
       </c>
